--- a/spring-debug/src/main/resources/事务的传播特性测试.xlsx
+++ b/spring-debug/src/main/resources/事务的传播特性测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>外层方法事务传播特性</t>
   </si>
@@ -53,7 +53,41 @@
     <t>REQUIRED NEW</t>
   </si>
   <si>
-    <t>如果外层方法中存在事务，内层方法在运行的时候会挂起外层事务并开启一个新的事务，如果程序正常执行，则内层方法优先事务提交，然后外层方法再提交；如果内层方法中存在异常，内层事务会优先回滚，外层方法事务也会回滚，如果外层方法中存在异常，那么内层事务正常正常提交，而外层方法会进行回滚操作</t>
+    <r>
+      <t>如果外层方法中存在事务，内层方法在运行的时候会挂起外层事务并开启一个新的事务，如果程序正常执行，则内层方法优先事务提交，然后外层方法再提交；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果内层方法中存在异常，内层事务会优先回滚，外层方法事务也会回滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果外层方法中存在异常，那么内层事务正常正常提交，而外层方法会进行回滚操作</t>
+    </r>
   </si>
   <si>
     <t>NESTED</t>
@@ -84,13 +118,16 @@
     <t>如果程序正常执行，那么内层事务不会提交，在外部事务中统一进行事务提交，如果内层事务，或者外层事务中出现异常情况，那么会在外层事务的处理中统一进行异常回滚</t>
   </si>
   <si>
+    <t>如果外层方法中存在事务，内层方法在运行的时候会挂起外层事务并开启一个新的事务，如果程序正常执行，则内层方法优先事务提交，然后外层方法再提交；如果内层方法中存在异常，内层事务会优先回滚，外层方法事务也会回滚，如果外层方法中存在异常，那么内层事务正常正常提交，而外层方法会进行回滚操作</t>
+  </si>
+  <si>
     <t>如果外层方法中有事务，那么直接创建一个保存点，如果外层方法没有事务，那么就创建一个新的事务，后续操作中如果没有异常情况，那么会清除保存点信息，并且在外层事务中进行提交操作，如果内层方法中存在异常情况，那么会回滚到保存点，外层方法事务会直接进行回滚，如果外层方法中存在异常情况，那么会内层方法会正常执行，并且执行完毕之后释放保存点，并且外层方法事务会进行回滚</t>
   </si>
   <si>
-    <t>如果自己动手把每一种情况都演示了，其实挺好理解的，关键是大家舍不舍得花费时间一个一个去验证，在面试过程中，可能会经常问一下两个问题：
+    <t xml:space="preserve">
 1、REQUIRED和NESTED回滚的区别
-在回答两种方式区别的时候，最大的问题在于保存点的设置，很多同学会认为内部设置REQUIRED和NESTED效果是一样的，其实在外层方法对内层方法的异常情况在进行捕获的时候区别很大，两者报的异常信息都不同，使用REQUIRED的时候，会报Transaction rolled back because it has been marked as rollback-only信息，因为内部异常了，设置了回滚标记，外部捕获之后，要进行事务的提交，此时发现有回滚标记，那么意味着要回滚，所以会报异常，而NESTED不会发证这种情况，因为在回滚的时候把回滚标记清除了，外部捕获异常后去提交，没发现回滚标记，就可以正常提交了。
-2、REQUIRED_NEW和REQUIRED区别
+在回答两种方式区别的时候，最大的问题在于保存点的设置，很多同学会认为内部设置REQUIRED和NESTED效果是一样的，其实在外层方法对内层方法的异常情况在进行捕获的时候区别很大，两者报的异常信息都不同，使用REQUIRED的时候，会报Transaction rolled back because it has been marked as rollback-only信息，因为内部异常了，设置了回滚标记，外部捕获之后，要进行事务的提交，此时发现有回滚标记，那么意味着要回滚，所以会报异常，而NESTED不会发生这种情况，因为在回滚的时候把回滚标记清除了，外部捕获异常后去提交，没发现回滚标记，就可以正常提交了。
+2、REQUIRED_NEW和NESTED区别
 这两种方式产生的效果是一样的，但是REQUIRED_NEW会有新的连接生成，而NESTED使用的是当前事务的连接，而且NESTED还可以回滚到保存点，REQUIRED_NEW每次都是一个新的事务，没有办法控制其他事务的回滚，但NESTED其实是一个事务，外层事务可以控制内层事务的回滚，内层就算没有异常，外层出现异常，也可以全部回滚。</t>
   </si>
 </sst>
@@ -99,12 +136,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -128,69 +173,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,19 +233,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,38 +274,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,181 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +534,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -504,6 +558,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,17 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,25 +601,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,16 +620,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,137 +649,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +797,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -819,6 +867,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13023850" y="654050"/>
+          <a:ext cx="7781925" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:C51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1150,7 +1245,7 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1159,7 +1254,7 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1223,7 +1318,7 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1232,7 +1327,7 @@
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1282,7 +1377,7 @@
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1291,7 +1386,7 @@
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1341,7 +1436,7 @@
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1350,7 +1445,7 @@
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1432,7 +1527,7 @@
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1441,8 +1536,8 @@
       <c r="B42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
+      <c r="C42" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="81" customHeight="1" spans="1:3">
@@ -1450,8 +1545,8 @@
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
+      <c r="C43" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="51.5" customHeight="1" spans="1:3">
@@ -1484,7 +1579,7 @@
       <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1493,7 +1588,7 @@
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1502,8 +1597,8 @@
       <c r="B49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
+      <c r="C49" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="1:3">
@@ -1511,13 +1606,13 @@
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>22</v>
+      <c r="C50" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="153" customHeight="1" spans="1:3">
       <c r="A51" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1558,5 +1653,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>